--- a/Reports/ExcelReports/Report_CaseReport/open.xlsx
+++ b/Reports/ExcelReports/Report_CaseReport/open.xlsx
@@ -183,6 +183,35 @@
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
     </row>
     <row r="2" ht="15.0" customHeight="true">
       <c r="A2"/>
@@ -196,6 +225,35 @@
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AN2"/>
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3"/>
@@ -209,6 +267,35 @@
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AN3"/>
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4"/>
@@ -222,6 +309,35 @@
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
     </row>
     <row r="5" ht="15.0" customHeight="true">
       <c r="A5"/>
@@ -231,12 +347,41 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" t="s" s="5">
-        <v>1</v>
-      </c>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
     </row>
     <row r="6" ht="15.0" customHeight="true">
       <c r="A6"/>
@@ -247,11 +392,40 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" t="n" s="4">
-        <v>41386.742110011575</v>
-      </c>
+      <c r="I6"/>
       <c r="J6"/>
       <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6" t="n" s="4">
+        <v>41388.61888527778</v>
+      </c>
+      <c r="AM6"/>
+      <c r="AN6"/>
     </row>
     <row r="7" ht="15.0" customHeight="true">
       <c r="A7" s="3"/>
@@ -265,6 +439,35 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
     </row>
     <row r="8" ht="15.0" customHeight="true">
       <c r="A8" t="s" s="2">
@@ -280,6 +483,35 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
     </row>
     <row r="9" ht="15.0" customHeight="true">
       <c r="A9"/>
@@ -293,6 +525,35 @@
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
     </row>
     <row r="10" ht="15.0" customHeight="true">
       <c r="A10"/>
@@ -306,6 +567,35 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
     </row>
     <row r="11" ht="30.0" customHeight="true">
       <c r="A11" s="6"/>
@@ -319,6 +609,35 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
     </row>
     <row r="12" ht="30.0" customHeight="true">
       <c r="A12" s="6"/>
@@ -332,6 +651,35 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
     </row>
     <row r="13" ht="30.0" customHeight="true">
       <c r="A13" s="6"/>
@@ -345,6 +693,35 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
     </row>
     <row r="14" ht="30.0" customHeight="true">
       <c r="A14" s="6"/>
@@ -358,6 +735,35 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
     </row>
     <row r="15" ht="30.0" customHeight="true">
       <c r="A15" s="6"/>
@@ -371,6 +777,35 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
     </row>
     <row r="16" ht="30.0" customHeight="true">
       <c r="A16" s="6"/>
@@ -384,6 +819,35 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
     </row>
     <row r="17" ht="30.0" customHeight="true">
       <c r="A17" s="6"/>
@@ -397,6 +861,35 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
     </row>
     <row r="18" ht="30.0" customHeight="true">
       <c r="A18" s="6"/>
@@ -410,6 +903,35 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
     </row>
     <row r="19" ht="30.0" customHeight="true">
       <c r="A19" s="6"/>
@@ -423,6 +945,35 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
     </row>
     <row r="20" ht="30.0" customHeight="true">
       <c r="A20" s="6"/>
@@ -436,203 +987,373 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-    </row>
-    <row r="21" ht="30.0" customHeight="true">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" ht="30.0" customHeight="true">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" ht="30.0" customHeight="true">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" ht="30.0" customHeight="true">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" ht="30.0" customHeight="true">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" ht="30.0" customHeight="true">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" ht="30.0" customHeight="true">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" ht="30.0" customHeight="true">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" ht="30.0" customHeight="true">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" ht="30.0" customHeight="true">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" ht="30.0" customHeight="true">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" ht="30.0" customHeight="true">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" ht="15.0" customHeight="true">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-    </row>
-    <row r="34" ht="15.0" customHeight="true">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34" t="s" s="7">
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+    </row>
+    <row r="21" ht="15.0" customHeight="true">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+    </row>
+    <row r="22" ht="15.0" customHeight="true">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="K34"/>
-    </row>
-    <row r="35" ht="15.0" customHeight="true">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
+      <c r="AN22"/>
+    </row>
+    <row r="23" ht="15.0" customHeight="true">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+      <c r="AL23"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+      <c r="AL24"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+    </row>
+    <row r="25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+      <c r="AL25"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+    </row>
+    <row r="26">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+      <c r="AL27"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+      <c r="AL28"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -641,116 +1362,206 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AN11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AN12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AN13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AN14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AL15"/>
+    <mergeCell ref="AM15:AN15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AN16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AL17"/>
+    <mergeCell ref="AM17:AN17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM18:AN18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AL19"/>
+    <mergeCell ref="AM19:AN19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AL20"/>
+    <mergeCell ref="AM20:AN20"/>
     <mergeCell ref="A1:G7"/>
-    <mergeCell ref="A8:K10"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A8:AN10"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AK5:AN5"/>
+    <mergeCell ref="AM22:AN22"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
